--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/HoiVienNew.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/HoiVienNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D5AB55-1F4D-4F6A-9354-4136A2C38A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE21C86A-D95D-4FFD-B998-0A2CC57A9632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9142C9AF-67E1-46F6-BC1B-5B5834DCA644}"/>
   </bookViews>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>HND XÃ-PHƯỜNG…..</t>
-  </si>
-  <si>
-    <t>Giới tính
- (nam, nữ)</t>
   </si>
   <si>
     <t>CMND 
@@ -106,21 +102,10 @@
  hợp tác xã, tổ hợp tác</t>
   </si>
   <si>
-    <t>Tham gia tổ hội 
-ngành nghề, 
-chi hội 
-ngành nghề</t>
-  </si>
-  <si>
     <t>HV 
 nòng cốt</t>
   </si>
   <si>
-    <t>HV 
-ưu tú
- năm nào</t>
-  </si>
-  <si>
     <t>Hội viên 
 danh dự</t>
   </si>
@@ -132,12 +117,6 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>CHI HỘI DÂN CƯ</t>
-  </si>
-  <si>
-    <t>CHI HỘI NGHỀ NGHIỆP</t>
   </si>
   <si>
     <t xml:space="preserve">Số thẻ
@@ -221,13 +200,6 @@
  sinh viên</t>
   </si>
   <si>
-    <t>NDSXKDG
- (cấp cơ sở,
- huyện,Tp, 
-TW 
-năm nào)</t>
-  </si>
-  <si>
     <t>ND tiêu biểu 
 (năm nào)</t>
   </si>
@@ -283,12 +255,6 @@
 và GQVL</t>
   </si>
   <si>
-    <t>CHT</t>
-  </si>
-  <si>
-    <t>CHP</t>
-  </si>
-  <si>
     <r>
       <t>ID</t>
     </r>
@@ -307,6 +273,205 @@
   </si>
   <si>
     <t>Ly Do</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Họ Và Tên </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Số CCCD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vai trò </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gia đình thuộc diện </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nghề nghiệp hiện nay </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Phải nhập dữ liệu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số
+ TT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giới tính
+ (nam, nữ) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Nam Để X, Nữ  không để gì)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chức Vụ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Mặc định là hội viên khác thì chọn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HV 
+ưu tú
+ năm nào
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Để số năm nhiều năm cách nhau dấu ;VD 2019;2020)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NDSXKDG
+ (cấp cơ sở Ghi CS,
+ huyện Ghi H ,Tp Ghi Tp, 
+TW Ghi TW
+năm nào)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VD: 2019-CS;2020-H;2022-Tp;2023-TW</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <r>
@@ -321,208 +486,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(nhập dạng dd/MM/yyyy)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ngày tháng năm cấp số thẻ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(nhập dạng dd/MM/yyyy)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Họ Và Tên </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ngày tháng
- năm sinh </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(nhập dạng dd/MM/yyyy)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Số CCCD</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (*)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ngày tháng năm cấp số CCCD </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(*)
-(nhập dạng dd/MM/yyyy)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vai trò </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gia đình thuộc diện </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nghề nghiệp hiện nay </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Phải nhập dữ liệu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số
- TT </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(*)</t>
+      <t>(nhập dạng 'dd/MM/yyyy)</t>
     </r>
   </si>
   <si>
@@ -561,7 +525,121 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(nhập dạng dd/MM/yyyy)</t>
+      <t>(nhập dạng 'dd/MM/yyyy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ngày tháng năm cấp số thẻ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(nhập dạng 'dd/MM/yyyy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ngày tháng năm cấp số CCCD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)
+(nhập dạng 'dd/MM/yyyy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày tháng
+ năm sinh </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(nhập dạng 'dd/MM/yyyy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hội Viên Dân Cư
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Nhập X nếu là  dân cư)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hội Viên Nghề Nghiệp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Nhập X nếu là nghề nghiệp)</t>
     </r>
   </si>
 </sst>
@@ -661,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -815,6 +893,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -836,122 +953,120 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1267,108 +1382,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B607167B-9DEA-428E-A88E-E5D09368E6CA}">
-  <dimension ref="A1:BR5"/>
+  <dimension ref="A1:BP6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="16" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" style="17" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="37.5703125" customWidth="1"/>
-    <col min="43" max="43" width="16.42578125" customWidth="1"/>
-    <col min="44" max="44" width="19.140625" customWidth="1"/>
-    <col min="45" max="45" width="33.28515625" customWidth="1"/>
-    <col min="46" max="46" width="27" customWidth="1"/>
-    <col min="47" max="47" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="15" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19" style="15" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" style="15" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="37.5703125" customWidth="1"/>
+    <col min="44" max="44" width="16.42578125" customWidth="1"/>
+    <col min="45" max="45" width="19.140625" customWidth="1"/>
+    <col min="46" max="46" width="33.28515625" customWidth="1"/>
+    <col min="47" max="47" width="27" customWidth="1"/>
     <col min="48" max="48" width="19.5703125" customWidth="1"/>
     <col min="49" max="49" width="18" customWidth="1"/>
     <col min="50" max="50" width="16.140625" customWidth="1"/>
     <col min="51" max="51" width="21.140625" customWidth="1"/>
-    <col min="68" max="68" width="17" style="17" customWidth="1"/>
-    <col min="69" max="69" width="26.28515625" customWidth="1"/>
+    <col min="64" max="64" width="15.7109375" customWidth="1"/>
+    <col min="65" max="65" width="18.28515625" customWidth="1"/>
+    <col min="66" max="66" width="17" style="15" customWidth="1"/>
+    <col min="67" max="67" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="1"/>
+    <row r="1" spans="1:68" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
+      <c r="L1" s="1"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="1"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="4"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="2"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="1"/>
       <c r="AF1" s="2"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="1"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="2"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="2"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
-      <c r="AS1" s="1"/>
+      <c r="AS1" s="2"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
       <c r="BD1" s="1"/>
@@ -1384,65 +1500,63 @@
       <c r="BN1" s="2"/>
       <c r="BO1" s="2"/>
       <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
     </row>
-    <row r="2" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:68" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="1"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="4"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="2"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="1"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="1"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="2"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="2"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
-      <c r="AS2" s="1"/>
+      <c r="AS2" s="2"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
@@ -1458,65 +1572,63 @@
       <c r="BN2" s="2"/>
       <c r="BO2" s="2"/>
       <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
     </row>
-    <row r="3" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="1"/>
+    <row r="3" spans="1:68" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="2"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="2"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
-      <c r="AP3" s="2"/>
+      <c r="AP3" s="1"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
-      <c r="AS3" s="1"/>
+      <c r="AS3" s="2"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
-      <c r="AW3" s="23"/>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="21"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
@@ -1532,124 +1644,122 @@
       <c r="BN3" s="2"/>
       <c r="BO3" s="2"/>
       <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
     </row>
-    <row r="4" spans="1:70" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>78</v>
+    <row r="4" spans="1:68" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="C4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31" t="s">
+      <c r="J4" s="31"/>
+      <c r="K4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32" t="s">
+      <c r="L4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="M4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="35" t="s">
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="36" t="s">
+      <c r="T4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="37" t="s">
+      <c r="U4" s="38"/>
+      <c r="V4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="24" t="s">
+      <c r="W4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="X4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="Y4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="37" t="s">
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA4" s="24" t="s">
+      <c r="AC4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF4" s="40"/>
+      <c r="AD4" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="AG4" s="40"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="AK4" s="40"/>
       <c r="AL4" s="40"/>
       <c r="AM4" s="40"/>
       <c r="AN4" s="40"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="41" t="s">
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="27" t="s">
+      <c r="AS4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AR4" s="27" t="s">
+      <c r="AT4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AS4" s="24" t="s">
+      <c r="AU4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AT4" s="24" t="s">
+      <c r="AV4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AU4" s="24" t="s">
+      <c r="AW4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AV4" s="24" t="s">
+      <c r="AY4" s="37" t="s">
         <v>22</v>
-      </c>
-      <c r="AW4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY4" s="37" t="s">
-        <v>25</v>
       </c>
       <c r="AZ4" s="40"/>
       <c r="BA4" s="40"/>
@@ -1660,195 +1770,189 @@
       <c r="BF4" s="40"/>
       <c r="BG4" s="38"/>
       <c r="BH4" s="37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BI4" s="40"/>
       <c r="BJ4" s="38"/>
-      <c r="BK4" s="27" t="s">
+      <c r="BK4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM4" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="2"/>
+    </row>
+    <row r="5" spans="1:68" ht="231" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="BL4" s="43" t="s">
+      <c r="O5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="45" t="s">
+      <c r="P5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ4" s="42"/>
-      <c r="BR4" s="2"/>
+      <c r="U5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK5" s="23"/>
+      <c r="BL5" s="43"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BP5" s="12"/>
     </row>
-    <row r="5" spans="1:70" ht="231" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="25"/>
-      <c r="S5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="26"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BK5" s="26"/>
-      <c r="BL5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="BP5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="BQ5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR5" s="14"/>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="D6" s="19"/>
+      <c r="H6"/>
+      <c r="J6"/>
+      <c r="AA6"/>
+      <c r="BN6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="BN4:BO4"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="AV4:AV5"/>
@@ -1857,45 +1961,47 @@
     <mergeCell ref="AY4:BG4"/>
     <mergeCell ref="BH4:BJ4"/>
     <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AR4:AR5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="AC3:AG3"/>
     <mergeCell ref="AW3:BA3"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>